--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2085.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2085.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.385598108948481</v>
+        <v>2.273556709289551</v>
       </c>
       <c r="B1">
-        <v>3.778545608483098</v>
+        <v>3.308527231216431</v>
       </c>
       <c r="C1">
-        <v>3.360193229912877</v>
+        <v>2.905781030654907</v>
       </c>
       <c r="D1">
-        <v>3.696468058986631</v>
+        <v>3.156487464904785</v>
       </c>
       <c r="E1">
-        <v>1.460358956578241</v>
+        <v>2.299679279327393</v>
       </c>
     </row>
   </sheetData>
